--- a/Mifos Automation Excels/Client/150-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/150-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>makerepayment</t>
   </si>
@@ -107,13 +107,19 @@
   </si>
   <si>
     <t>Head Office</t>
+  </si>
+  <si>
+    <t>Repayment</t>
+  </si>
+  <si>
+    <t>Disbursement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,6 +140,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -174,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -200,12 +211,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -216,9 +221,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,6 +233,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -622,7 +639,7 @@
         <v>833.33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>658.34</v>
       </c>
@@ -642,7 +659,7 @@
         <v>91.67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -662,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -682,36 +699,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="12"/>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,7 +729,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -733,52 +738,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -788,12 +793,8 @@
       <c r="C2" s="10">
         <v>42005</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="8">
         <v>10000</v>
@@ -811,7 +812,6 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -827,9 +827,7 @@
       <c r="D3" s="10">
         <v>42036</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
+      <c r="E3" s="21"/>
       <c r="F3" s="3">
         <v>833.33</v>
       </c>
@@ -855,9 +853,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3">
@@ -874,12 +869,8 @@
       <c r="C4" s="10">
         <v>42064</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>833.33</v>
       </c>
@@ -905,9 +896,6 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3">
@@ -924,12 +912,8 @@
       <c r="C5" s="10">
         <v>42095</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>833.33</v>
       </c>
@@ -955,9 +939,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3">
@@ -974,12 +955,8 @@
       <c r="C6" s="10">
         <v>42125</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>833.33</v>
       </c>
@@ -987,7 +964,7 @@
         <v>6666.68</v>
       </c>
       <c r="H6" s="3">
-        <v>91.67</v>
+        <v>75</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -996,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>925</v>
+        <v>908.33</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -1007,11 +984,8 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
       <c r="P6" s="3">
-        <v>925</v>
+        <v>908.33</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1024,12 +998,8 @@
       <c r="C7" s="10">
         <v>42156</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>833.33</v>
       </c>
@@ -1037,7 +1007,7 @@
         <v>5833.35</v>
       </c>
       <c r="H7" s="3">
-        <v>91.67</v>
+        <v>66.67</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1046,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -1057,11 +1027,8 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
       <c r="P7" s="3">
-        <v>925</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1074,12 +1041,8 @@
       <c r="C8" s="10">
         <v>42186</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>833.33</v>
       </c>
@@ -1087,7 +1050,7 @@
         <v>5000.0200000000004</v>
       </c>
       <c r="H8" s="3">
-        <v>81.67</v>
+        <v>58.33</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1096,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>915</v>
+        <v>891.66</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1107,11 +1070,8 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
-        <v>915</v>
+        <v>891.66</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1124,12 +1084,8 @@
       <c r="C9" s="10">
         <v>42217</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>833.33</v>
       </c>
@@ -1155,9 +1111,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
@@ -1174,12 +1127,8 @@
       <c r="C10" s="10">
         <v>42248</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>833.33</v>
       </c>
@@ -1205,9 +1154,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
@@ -1224,12 +1170,8 @@
       <c r="C11" s="10">
         <v>42278</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>833.33</v>
       </c>
@@ -1255,9 +1197,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
         <v>0</v>
       </c>
       <c r="P11" s="3">
@@ -1274,12 +1213,8 @@
       <c r="C12" s="10">
         <v>42309</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>833.33</v>
       </c>
@@ -1305,9 +1240,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
@@ -1324,12 +1256,8 @@
       <c r="C13" s="10">
         <v>42339</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>833.33</v>
       </c>
@@ -1355,9 +1283,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
         <v>0</v>
       </c>
       <c r="P13" s="3">
@@ -1374,12 +1299,8 @@
       <c r="C14" s="10">
         <v>42370</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>833.37</v>
       </c>
@@ -1405,9 +1326,6 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
@@ -1421,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1436,119 +1354,107 @@
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
-        <v>2622</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="19">
+        <v>43</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="22">
-        <v>2622</v>
-      </c>
-      <c r="D2" s="22" t="s">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="19">
+        <v>933.33</v>
+      </c>
+      <c r="F2" s="19">
+        <v>833.33</v>
+      </c>
+      <c r="G2" s="19">
+        <v>100</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>9166.67</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>41</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="22">
-        <v>2622</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="22">
-        <v>2622</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="22">
-        <v>2622</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
-        <v>2621</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" s="22">
-        <v>2621</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2621</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="22">
-        <v>2621</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="22">
-        <v>2621</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="H5" s="17"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="3"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
+        <v>42005</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="25">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>10000</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/150-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/150-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -260,6 +265,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -307,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +348,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,6 +400,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,10 +768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -737,7 +779,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -777,17 +819,18 @@
       <c r="M1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="10">
@@ -812,9 +855,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -852,14 +896,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -895,14 +940,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>925</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -938,14 +984,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>925</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -981,14 +1028,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>908.33</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1024,14 +1072,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1067,14 +1116,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>891.66</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1110,14 +1160,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>883.33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1153,14 +1204,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1196,14 +1248,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>866.66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1239,14 +1292,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>858.33</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1282,14 +1336,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1325,10 +1380,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>841.7</v>
       </c>
     </row>
@@ -1341,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/150-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/150-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -190,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -204,28 +199,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,26 +328,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,23 +363,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -643,7 +589,7 @@
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -663,8 +609,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>10000</v>
       </c>
       <c r="B2" s="3">
@@ -681,7 +627,7 @@
         <v>833.33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>658.34</v>
       </c>
@@ -701,7 +647,7 @@
         <v>91.67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -721,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -740,25 +686,6 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -770,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -780,66 +707,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>10000</v>
       </c>
       <c r="H2" s="3"/>
@@ -865,13 +792,13 @@
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>42036</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>42036</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="3">
         <v>833.33</v>
       </c>
@@ -911,7 +838,7 @@
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -955,7 +882,7 @@
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -999,7 +926,7 @@
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -1043,7 +970,7 @@
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1087,7 +1014,7 @@
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1131,7 +1058,7 @@
       <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
@@ -1175,7 +1102,7 @@
       <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
@@ -1219,7 +1146,7 @@
       <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
@@ -1263,7 +1190,7 @@
       <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
@@ -1307,7 +1234,7 @@
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
@@ -1351,7 +1278,7 @@
       <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
@@ -1410,107 +1337,107 @@
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="14">
         <v>43</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="14">
         <v>933.33</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="14">
         <v>833.33</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="14">
         <v>100</v>
       </c>
-      <c r="H2" s="19">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0</v>
-      </c>
-      <c r="J2" s="23">
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
         <v>9166.67</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="20"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="14">
         <v>41</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="17">
         <v>42005</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="20">
         <v>10000</v>
       </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
         <v>10000</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
